--- a/feature-types-AAT_20230312.xlsx
+++ b/feature-types-AAT_20230312.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/linked-places/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68FC9E9-7F30-4543-BDCE-CB9B340292D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E45CA0-A7ED-8A42-B4F8-BD03E80D5A22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="680" windowWidth="26560" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="487">
   <si>
     <t>parent</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>ruined settlements</t>
-  </si>
-  <si>
-    <t>Refers to any abandoned settlements above ground with buildings that are partially destroyed or in ruins.</t>
   </si>
   <si>
     <t>deserted settlement</t>
@@ -2022,7 +2019,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2250,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2261,16 +2258,16 @@
         <v>300167671</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="22">
         <v>11</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2281,16 +2278,16 @@
         <v>300387318</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="23">
         <v>12</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2301,14 +2298,14 @@
         <v>300387326</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2319,16 +2316,16 @@
         <v>300387203</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E15" s="22">
         <v>13</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2337,16 +2334,16 @@
         <v>300239103</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="23">
         <v>14</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -2357,16 +2354,16 @@
         <v>300182722</v>
       </c>
       <c r="C17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="E17" s="22">
         <v>15</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -2377,16 +2374,16 @@
         <v>300387178</v>
       </c>
       <c r="C18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>51</v>
       </c>
       <c r="E18" s="23">
         <v>16</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2397,16 +2394,16 @@
         <v>300387347</v>
       </c>
       <c r="C19" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="22">
         <v>17</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2414,16 +2411,16 @@
         <v>300056006</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="23">
         <v>18</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -2434,16 +2431,16 @@
         <v>300387616</v>
       </c>
       <c r="C21" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="35" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>59</v>
       </c>
       <c r="E21" s="22">
         <v>19</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2454,16 +2451,16 @@
         <v>300386114</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E22" s="23">
         <v>20</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2471,16 +2468,16 @@
         <v>300261086</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="E23" s="22">
         <v>21</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2491,16 +2488,16 @@
         <v>300232420</v>
       </c>
       <c r="C24" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>67</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>68</v>
       </c>
       <c r="E24" s="23">
         <v>22</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2511,16 +2508,16 @@
         <v>300128207</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="E25" s="22">
         <v>23</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2531,16 +2528,16 @@
         <v>300403959</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E26" s="23">
         <v>24</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2551,16 +2548,16 @@
         <v>300387062</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E27" s="22">
         <v>25</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2571,16 +2568,16 @@
         <v>300387506</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="E28" s="23">
         <v>26</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2591,16 +2588,16 @@
         <v>300128214</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="E29" s="22">
         <v>27</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2611,16 +2608,16 @@
         <v>300417385</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="23">
         <v>28</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2631,16 +2628,16 @@
         <v>300235114</v>
       </c>
       <c r="C31" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>88</v>
       </c>
       <c r="E31" s="22">
         <v>29</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2651,16 +2648,16 @@
         <v>300387137</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="E32" s="23">
         <v>30</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2671,16 +2668,16 @@
         <v>300235118</v>
       </c>
       <c r="C33" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="E33" s="22">
         <v>31</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2691,16 +2688,16 @@
         <v>300235115</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="E34" s="23">
         <v>32</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2711,16 +2708,16 @@
         <v>300412029</v>
       </c>
       <c r="C35" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>100</v>
       </c>
       <c r="E35" s="22">
         <v>33</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2731,16 +2728,16 @@
         <v>300232418</v>
       </c>
       <c r="C36" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="36" t="s">
         <v>102</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>103</v>
       </c>
       <c r="E36" s="23">
         <v>34</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2751,16 +2748,16 @@
         <v>300236157</v>
       </c>
       <c r="C37" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="38" t="s">
         <v>105</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>106</v>
       </c>
       <c r="E37" s="22">
         <v>35</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2771,16 +2768,16 @@
         <v>300000774</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="E38" s="23">
         <v>36</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2791,16 +2788,16 @@
         <v>300000771</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="E39" s="22">
         <v>37</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2811,16 +2808,16 @@
         <v>300000776</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E40" s="23">
         <v>38</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2831,16 +2828,16 @@
         <v>300135982</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="E41" s="22">
         <v>39</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2851,16 +2848,16 @@
         <v>300387107</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E42" s="23">
         <v>40</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2871,16 +2868,16 @@
         <v>300387130</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E43" s="22">
         <v>41</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2891,16 +2888,16 @@
         <v>300236153</v>
       </c>
       <c r="C44" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="34" t="s">
         <v>126</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>127</v>
       </c>
       <c r="E44" s="23">
         <v>42</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2911,16 +2908,16 @@
         <v>300235087</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E45" s="22">
         <v>43</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2931,16 +2928,16 @@
         <v>300264084</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E46" s="23">
         <v>44</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2951,16 +2948,16 @@
         <v>300264389</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E47" s="22">
         <v>45</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2971,16 +2968,16 @@
         <v>300374944</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E48" s="23">
         <v>46</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2991,16 +2988,16 @@
         <v>300235088</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="E49" s="22">
         <v>47</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3011,16 +3008,16 @@
         <v>300387184</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E50" s="23">
         <v>48</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3031,16 +3028,16 @@
         <v>300235095</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E51" s="22">
         <v>49</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3051,14 +3048,14 @@
         <v>300235096</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3069,16 +3066,16 @@
         <v>300235101</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E53" s="23">
         <v>50</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3089,16 +3086,16 @@
         <v>300235105</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E54" s="22">
         <v>51</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3109,16 +3106,16 @@
         <v>300235106</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E55" s="23">
         <v>52</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3129,16 +3126,16 @@
         <v>300235099</v>
       </c>
       <c r="C56" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>160</v>
       </c>
       <c r="E56" s="22">
         <v>53</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3146,16 +3143,16 @@
         <v>300024979</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="39" t="s">
         <v>162</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>163</v>
       </c>
       <c r="E57" s="23">
         <v>54</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3166,16 +3163,16 @@
         <v>300192630</v>
       </c>
       <c r="C58" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>165</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>166</v>
       </c>
       <c r="E58" s="22">
         <v>55</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -3186,16 +3183,16 @@
         <v>300387171</v>
       </c>
       <c r="C59" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="E59" s="23">
         <v>56</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -3206,16 +3203,16 @@
         <v>300386176</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="E60" s="46">
         <v>57</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3223,16 +3220,16 @@
         <v>300000201</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E61" s="23">
         <v>58</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3243,16 +3240,16 @@
         <v>300000202</v>
       </c>
       <c r="C62" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E62" s="22">
         <v>59</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3263,16 +3260,16 @@
         <v>300000809</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="E63" s="23">
         <v>60</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3283,16 +3280,16 @@
         <v>300000810</v>
       </c>
       <c r="C64" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>181</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>182</v>
       </c>
       <c r="E64" s="22">
         <v>61</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3303,16 +3300,16 @@
         <v>300387006</v>
       </c>
       <c r="C65" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="37" t="s">
         <v>184</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>185</v>
       </c>
       <c r="E65" s="23">
         <v>62</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3323,16 +3320,16 @@
         <v>300387007</v>
       </c>
       <c r="C66" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="37" t="s">
         <v>187</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>188</v>
       </c>
       <c r="E66" s="22">
         <v>63</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3343,16 +3340,16 @@
         <v>300387000</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="E67" s="23">
         <v>64</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3363,16 +3360,16 @@
         <v>300000835</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="E68" s="22">
         <v>65</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3383,16 +3380,16 @@
         <v>300386998</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="E69" s="23">
         <v>66</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3403,16 +3400,16 @@
         <v>300263063</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="E70" s="22">
         <v>67</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3423,16 +3420,16 @@
         <v>300387268</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="E71" s="23">
         <v>68</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3443,16 +3440,16 @@
         <v>300387004</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="E72" s="22">
         <v>69</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3463,16 +3460,16 @@
         <v>300266755</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="E73" s="23">
         <v>70</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3483,16 +3480,16 @@
         <v>300000277</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="E74" s="22">
         <v>71</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3503,16 +3500,16 @@
         <v>300164060</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="E75" s="23">
         <v>72</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3523,16 +3520,16 @@
         <v>300000455</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="E76" s="22">
         <v>73</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3543,16 +3540,16 @@
         <v>300008439</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="E77" s="23">
         <v>74</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3563,16 +3560,16 @@
         <v>300410262</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="E78" s="22">
         <v>75</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3583,16 +3580,16 @@
         <v>300417317</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="E79" s="23">
         <v>76</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3603,16 +3600,16 @@
         <v>300263741</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="E80" s="22">
         <v>77</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3623,16 +3620,16 @@
         <v>300000678</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="E81" s="23">
         <v>78</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3643,10 +3640,10 @@
         <v>300125766</v>
       </c>
       <c r="C82" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>479</v>
       </c>
       <c r="E82" s="23"/>
     </row>
@@ -3658,16 +3655,16 @@
         <v>300000681</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="E83" s="22">
         <v>79</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3678,16 +3675,16 @@
         <v>300000401</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="E84" s="23">
         <v>80</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3698,16 +3695,16 @@
         <v>300000390</v>
       </c>
       <c r="C85" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="E85" s="22">
         <v>81</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3718,16 +3715,16 @@
         <v>300132656</v>
       </c>
       <c r="C86" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="E86" s="23">
         <v>82</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,16 +3735,16 @@
         <v>300257640</v>
       </c>
       <c r="C87" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="E87" s="22">
         <v>83</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3758,16 +3755,16 @@
         <v>300000705</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E88" s="23">
         <v>84</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3778,16 +3775,16 @@
         <v>300000750</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="E89" s="22">
         <v>85</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -3798,16 +3795,16 @@
         <v>300387143</v>
       </c>
       <c r="C90" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="E90" s="23">
         <v>86</v>
       </c>
       <c r="F90" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3815,16 +3812,16 @@
         <v>300004790</v>
       </c>
       <c r="C91" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="E91" s="22">
         <v>87</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3835,14 +3832,14 @@
         <v>300007836</v>
       </c>
       <c r="C92" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="12" t="s">
         <v>472</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>473</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3853,16 +3850,16 @@
         <v>300008057</v>
       </c>
       <c r="C93" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="E93" s="23">
         <v>88</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3873,16 +3870,16 @@
         <v>300008063</v>
       </c>
       <c r="C94" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="E94" s="22">
         <v>89</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3893,16 +3890,16 @@
         <v>300006073</v>
       </c>
       <c r="C95" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="E95" s="23">
         <v>90</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3913,16 +3910,16 @@
         <v>300006075</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="E96" s="22">
         <v>91</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3933,16 +3930,16 @@
         <v>300006084</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="E97" s="23">
         <v>92</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -3953,16 +3950,16 @@
         <v>300006165</v>
       </c>
       <c r="C98" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="E98" s="22">
         <v>93</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3973,16 +3970,16 @@
         <v>300006191</v>
       </c>
       <c r="C99" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D99" s="34" t="s">
         <v>280</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>281</v>
       </c>
       <c r="E99" s="23">
         <v>94</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3993,16 +3990,16 @@
         <v>300263489</v>
       </c>
       <c r="C100" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>283</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>284</v>
       </c>
       <c r="E100" s="22">
         <v>95</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4013,16 +4010,16 @@
         <v>300005903</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="E101" s="23">
         <v>96</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -4033,16 +4030,16 @@
         <v>300120364</v>
       </c>
       <c r="C102" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="13" t="s">
         <v>289</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>290</v>
       </c>
       <c r="E102" s="22">
         <v>97</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4053,16 +4050,16 @@
         <v>300005734</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E103" s="23">
         <v>98</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4073,16 +4070,16 @@
         <v>300387025</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="E104" s="22">
         <v>99</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4093,16 +4090,16 @@
         <v>300006888</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E105" s="23">
         <v>100</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4113,16 +4110,16 @@
         <v>300005072</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="E106" s="22">
         <v>101</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4133,16 +4130,16 @@
         <v>300006617</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E107" s="23">
         <v>102</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4150,16 +4147,16 @@
         <v>300155846</v>
       </c>
       <c r="C108" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="E108" s="22">
         <v>103</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4170,16 +4167,16 @@
         <v>300008591</v>
       </c>
       <c r="C109" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D109" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="E109" s="23">
         <v>104</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4187,16 +4184,16 @@
         <v>300008072</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E110" s="22">
         <v>105</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4207,16 +4204,16 @@
         <v>300122438</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E111" s="23">
         <v>106</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4227,16 +4224,16 @@
         <v>300008217</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="E112" s="22">
         <v>107</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4247,16 +4244,16 @@
         <v>300265365</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="E113" s="23">
         <v>108</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4267,16 +4264,16 @@
         <v>300386595</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="E114" s="22">
         <v>109</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,16 +4284,16 @@
         <v>300265367</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="E115" s="23">
         <v>110</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4307,16 +4304,16 @@
         <v>300265366</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="E116" s="22">
         <v>111</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4327,16 +4324,16 @@
         <v>300008312</v>
       </c>
       <c r="C117" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="D117" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="E117" s="23">
         <v>112</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4347,16 +4344,16 @@
         <v>300008321</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="E118" s="22">
         <v>113</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4367,16 +4364,16 @@
         <v>300132294</v>
       </c>
       <c r="C119" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E119" s="23">
         <v>114</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4387,16 +4384,16 @@
         <v>300266060</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E120" s="22">
         <v>115</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4407,16 +4404,16 @@
         <v>300386845</v>
       </c>
       <c r="C121" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="E121" s="23">
         <v>116</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4427,16 +4424,16 @@
         <v>300008850</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="E122" s="22">
         <v>117</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4447,14 +4444,14 @@
         <v>300386846</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>483</v>
       </c>
       <c r="E123" s="22"/>
       <c r="F123" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4465,14 +4462,14 @@
         <v>300008804</v>
       </c>
       <c r="C124" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="E124" s="22"/>
       <c r="F124" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4483,16 +4480,16 @@
         <v>300128176</v>
       </c>
       <c r="C125" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D125" s="34" t="s">
         <v>348</v>
-      </c>
-      <c r="D125" s="34" t="s">
-        <v>349</v>
       </c>
       <c r="E125" s="23">
         <v>118</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4503,16 +4500,16 @@
         <v>300008760</v>
       </c>
       <c r="C126" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D126" s="34" t="s">
         <v>351</v>
-      </c>
-      <c r="D126" s="34" t="s">
-        <v>352</v>
       </c>
       <c r="E126" s="22">
         <v>119</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4523,16 +4520,16 @@
         <v>300386860</v>
       </c>
       <c r="C127" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D127" s="13" t="s">
         <v>354</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>355</v>
       </c>
       <c r="E127" s="23">
         <v>120</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4543,16 +4540,16 @@
         <v>300008916</v>
       </c>
       <c r="C128" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="E128" s="22">
         <v>121</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -4563,16 +4560,16 @@
         <v>300387498</v>
       </c>
       <c r="C129" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D129" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="E129" s="23">
         <v>122</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -4583,16 +4580,16 @@
         <v>300387499</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D130" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="E130" s="22">
         <v>123</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -4603,16 +4600,16 @@
         <v>300008777</v>
       </c>
       <c r="C131" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D131" s="34" t="s">
         <v>366</v>
-      </c>
-      <c r="D131" s="34" t="s">
-        <v>367</v>
       </c>
       <c r="E131" s="23">
         <v>124</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -4623,16 +4620,16 @@
         <v>300008791</v>
       </c>
       <c r="C132" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="E132" s="22">
         <v>125</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -4643,16 +4640,16 @@
         <v>300386853</v>
       </c>
       <c r="C133" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>372</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>373</v>
       </c>
       <c r="E133" s="23">
         <v>126</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -4663,16 +4660,16 @@
         <v>300386831</v>
       </c>
       <c r="C134" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D134" s="34" t="s">
         <v>375</v>
-      </c>
-      <c r="D134" s="34" t="s">
-        <v>376</v>
       </c>
       <c r="E134" s="22">
         <v>127</v>
       </c>
       <c r="F134" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G134" s="60"/>
     </row>
@@ -4684,16 +4681,16 @@
         <v>300008795</v>
       </c>
       <c r="C135" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D135" s="34" t="s">
         <v>378</v>
-      </c>
-      <c r="D135" s="34" t="s">
-        <v>379</v>
       </c>
       <c r="E135" s="23">
         <v>128</v>
       </c>
       <c r="F135" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G135" s="60"/>
     </row>
@@ -4705,16 +4702,16 @@
         <v>300008686</v>
       </c>
       <c r="C136" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D136" s="34" t="s">
         <v>381</v>
-      </c>
-      <c r="D136" s="34" t="s">
-        <v>382</v>
       </c>
       <c r="E136" s="22">
         <v>129</v>
       </c>
       <c r="F136" s="52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -4725,16 +4722,16 @@
         <v>300259572</v>
       </c>
       <c r="C137" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D137" s="34" t="s">
         <v>384</v>
-      </c>
-      <c r="D137" s="34" t="s">
-        <v>385</v>
       </c>
       <c r="E137" s="23">
         <v>130</v>
       </c>
       <c r="F137" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -4745,16 +4742,16 @@
         <v>300008805</v>
       </c>
       <c r="C138" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D138" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="E138" s="22">
         <v>131</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -4765,16 +4762,16 @@
         <v>300132339</v>
       </c>
       <c r="C139" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="D139" s="54" t="s">
         <v>390</v>
-      </c>
-      <c r="D139" s="54" t="s">
-        <v>391</v>
       </c>
       <c r="E139" s="23">
         <v>132</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -4785,16 +4782,16 @@
         <v>300008761</v>
       </c>
       <c r="C140" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>394</v>
       </c>
       <c r="E140" s="22">
         <v>133</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -4805,16 +4802,16 @@
         <v>300129031</v>
       </c>
       <c r="C141" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D141" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>397</v>
       </c>
       <c r="E141" s="23">
         <v>134</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -4825,16 +4822,16 @@
         <v>300008746</v>
       </c>
       <c r="C142" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="D142" s="55" t="s">
         <v>399</v>
-      </c>
-      <c r="D142" s="55" t="s">
-        <v>400</v>
       </c>
       <c r="E142" s="22">
         <v>135</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -4845,14 +4842,14 @@
         <v>300379998</v>
       </c>
       <c r="C143" s="55" t="s">
+        <v>474</v>
+      </c>
+      <c r="D143" s="55" t="s">
         <v>475</v>
-      </c>
-      <c r="D143" s="55" t="s">
-        <v>476</v>
       </c>
       <c r="E143" s="22"/>
       <c r="F143" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -4863,16 +4860,16 @@
         <v>300386857</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E144" s="23">
         <v>136</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4883,10 +4880,10 @@
         <v>300266059</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E145" s="22">
         <v>137</v>
@@ -4903,16 +4900,16 @@
         <v>300008678</v>
       </c>
       <c r="C146" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D146" s="34" t="s">
         <v>405</v>
-      </c>
-      <c r="D146" s="34" t="s">
-        <v>406</v>
       </c>
       <c r="E146" s="23">
         <v>138</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4923,16 +4920,16 @@
         <v>300132312</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E147" s="22">
         <v>139</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4943,16 +4940,16 @@
         <v>300008707</v>
       </c>
       <c r="C148" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="E148" s="23">
         <v>140</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4963,16 +4960,16 @@
         <v>300008736</v>
       </c>
       <c r="C149" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="D149" s="37" t="s">
         <v>413</v>
-      </c>
-      <c r="D149" s="37" t="s">
-        <v>414</v>
       </c>
       <c r="E149" s="22">
         <v>141</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4983,16 +4980,16 @@
         <v>300008697</v>
       </c>
       <c r="C150" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="D150" s="37" t="s">
         <v>416</v>
-      </c>
-      <c r="D150" s="37" t="s">
-        <v>417</v>
       </c>
       <c r="E150" s="23">
         <v>142</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5003,16 +5000,16 @@
         <v>300008899</v>
       </c>
       <c r="C151" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="D151" s="34" t="s">
         <v>419</v>
-      </c>
-      <c r="D151" s="34" t="s">
-        <v>420</v>
       </c>
       <c r="E151" s="22">
         <v>143</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5023,16 +5020,16 @@
         <v>300132316</v>
       </c>
       <c r="C152" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D152" s="34" t="s">
         <v>422</v>
-      </c>
-      <c r="D152" s="34" t="s">
-        <v>423</v>
       </c>
       <c r="E152" s="23">
         <v>144</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5043,16 +5040,16 @@
         <v>300132315</v>
       </c>
       <c r="C153" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="D153" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="D153" s="34" t="s">
-        <v>426</v>
       </c>
       <c r="E153" s="22">
         <v>145</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5063,16 +5060,16 @@
         <v>300008835</v>
       </c>
       <c r="C154" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="D154" s="34" t="s">
         <v>428</v>
-      </c>
-      <c r="D154" s="34" t="s">
-        <v>429</v>
       </c>
       <c r="E154" s="23">
         <v>146</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5083,16 +5080,16 @@
         <v>300008676</v>
       </c>
       <c r="C155" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D155" s="34" t="s">
         <v>431</v>
-      </c>
-      <c r="D155" s="34" t="s">
-        <v>432</v>
       </c>
       <c r="E155" s="22">
         <v>147</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5103,16 +5100,16 @@
         <v>300008679</v>
       </c>
       <c r="C156" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="D156" s="34" t="s">
         <v>434</v>
-      </c>
-      <c r="D156" s="34" t="s">
-        <v>435</v>
       </c>
       <c r="E156" s="23">
         <v>148</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5123,16 +5120,16 @@
         <v>300387217</v>
       </c>
       <c r="C157" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="D157" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="D157" s="34" t="s">
-        <v>438</v>
       </c>
       <c r="E157" s="22">
         <v>149</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5143,16 +5140,16 @@
         <v>300266556</v>
       </c>
       <c r="C158" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D158" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="E158" s="23">
         <v>150</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5163,16 +5160,16 @@
         <v>300266558</v>
       </c>
       <c r="C159" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="D159" s="34" t="s">
         <v>443</v>
-      </c>
-      <c r="D159" s="34" t="s">
-        <v>444</v>
       </c>
       <c r="E159" s="22">
         <v>151</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5183,16 +5180,16 @@
         <v>300008687</v>
       </c>
       <c r="C160" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="D160" s="34" t="s">
         <v>446</v>
-      </c>
-      <c r="D160" s="34" t="s">
-        <v>447</v>
       </c>
       <c r="E160" s="23">
         <v>152</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5203,16 +5200,16 @@
         <v>300008694</v>
       </c>
       <c r="C161" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="D161" s="34" t="s">
         <v>449</v>
-      </c>
-      <c r="D161" s="34" t="s">
-        <v>450</v>
       </c>
       <c r="E161" s="22">
         <v>153</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -5223,16 +5220,16 @@
         <v>300266571</v>
       </c>
       <c r="C162" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="D162" s="34" t="s">
         <v>452</v>
-      </c>
-      <c r="D162" s="34" t="s">
-        <v>453</v>
       </c>
       <c r="E162" s="23">
         <v>154</v>
       </c>
       <c r="F162" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5243,16 +5240,16 @@
         <v>300008680</v>
       </c>
       <c r="C163" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="E163" s="22">
         <v>155</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5263,16 +5260,16 @@
         <v>300387029</v>
       </c>
       <c r="C164" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D164" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>459</v>
       </c>
       <c r="E164" s="23">
         <v>156</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5283,16 +5280,16 @@
         <v>300185707</v>
       </c>
       <c r="C165" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D165" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>462</v>
       </c>
       <c r="E165" s="22">
         <v>157</v>
       </c>
       <c r="F165" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -5303,16 +5300,16 @@
         <v>300008932</v>
       </c>
       <c r="C166" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="D166" s="58" t="s">
         <v>464</v>
-      </c>
-      <c r="D166" s="58" t="s">
-        <v>465</v>
       </c>
       <c r="E166" s="23">
         <v>158</v>
       </c>
       <c r="F166" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
